--- a/treatment_modalities.xlsx
+++ b/treatment_modalities.xlsx
@@ -64,7 +64,7 @@
     <t>Chemotherapy given after surgery to kill any remaining cancer cells.</t>
   </si>
   <si>
-    <t>Treatment that targets specific genes, proteins, or pathways involved in cancer growth.</t>
+    <t xml:space="preserve">Targeted therapy is a treatment that targets the cancer’s specific genes, proteins, or the tissue environment that contributes to cancer growth and survival. </t>
   </si>
   <si>
     <t>Treatment that blocks the effects of hormones or stops the body from making them.</t>

--- a/treatment_modalities.xlsx
+++ b/treatment_modalities.xlsx
@@ -52,7 +52,7 @@
     <t>Treatment using drugs to kill cancer cells or slow their growth.</t>
   </si>
   <si>
-    <t>Neoadjuvant systemic therapy is treatment given before surgery to shrink a large tumor and/or reduce the risk of recurrence. Chemotherapy, immunotherapy, hormonal therapy, and/or targeted therapy may all be given as neoadjuvant treatments for people with certain types of breast cancer.</t>
+    <t>Neoadjuvant systemic therapy is treatment given before surgery to shrink a large tumor and/or reduce the risk of recurrence. Chemotherapy, immunotherapy, hormonal therapy, and/or targeted therapy may all be given as neoadjuvant treatments for people with certain types cancer.</t>
   </si>
   <si>
     <t>Treatment using high-energy rays or particles to destroy cancer cells.</t>
